--- a/results.20180510.3.xlsx
+++ b/results.20180510.3.xlsx
@@ -15,7 +15,7 @@
     <sheet name="results" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">results!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">results!$A$1:$K$101</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -1155,7 +1155,7 @@
   <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="K49" sqref="K49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4709,7 +4709,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K1">
+  <autoFilter ref="A1:K101">
     <sortState ref="A2:K101">
       <sortCondition descending="1" ref="K1"/>
     </sortState>
